--- a/warehouse/templates/export_file/packing_list_template.xlsx
+++ b/warehouse/templates/export_file/packing_list_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuxiang.li/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B9AF113-3348-7144-A0AB-A827307C4957}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57B5CFE1-8FAB-D94D-A12D-0A84E33FA01C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="10480" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -104,7 +104,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-1010804]General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -145,6 +145,13 @@
       <name val="Microsoft YaHei UI"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -198,7 +205,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -215,6 +222,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -503,7 +511,7 @@
   <dimension ref="A1:Y50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -603,12 +611,27 @@
       </c>
     </row>
     <row r="2" spans="1:25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
+      <c r="A2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
     </row>
     <row r="3" spans="1:25">
+      <c r="A3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
     </row>
@@ -805,10 +828,10 @@
     <protectedRange algorithmName="SHA-512" hashValue="UzA0nOFUeaFtULQSIT4958zhoYyTmirahG2yNfR1IG/8l49DY8qF3CYXVXIUJIJtfHaTg0AH2Mgy69FLGfFI8g==" saltValue="s1fm+kLliY0bj7VgCAWACg==" spinCount="100000" sqref="A1:B1" name="区域1"/>
   </protectedRanges>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2 V2:V50" xr:uid="{5F61F7B2-06E6-AC49-9654-36CA24174C22}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2:V50" xr:uid="{5F61F7B2-06E6-AC49-9654-36CA24174C22}">
       <formula1>"卡车派送,UPS,FEDEX,DHL,DPD,TNT,客户自提,仓储上架,暂扣留仓,整柜直送,大货中转,亚马逊自提,UPS LTL,LTL,PICKUP BY CNEE,STORED IN W.H.,PARCEL WITH LABEL,PARCEL WITHOUT LABEL,FTL,FCL"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 W2:W50" xr:uid="{AE7D9BBC-EE55-2549-A233-61799DCDACCF}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2:W50" xr:uid="{AE7D9BBC-EE55-2549-A233-61799DCDACCF}">
       <formula1>"UPS,FEDEX,DHL,DPD,TNT"</formula1>
     </dataValidation>
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="录入提示" error="不能修改标题" sqref="B1" xr:uid="{950C7A98-8ED7-1046-96B0-D59875A5F2C0}">

--- a/warehouse/templates/export_file/packing_list_template.xlsx
+++ b/warehouse/templates/export_file/packing_list_template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10609"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuxiang.li/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuxiang.li/Documents/learning/zem/warehouse/warehouse/templates/export_file/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57B5CFE1-8FAB-D94D-A12D-0A84E33FA01C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E89F6858-5AE4-0345-955C-D9436171BD1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="10480" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -511,7 +511,7 @@
   <dimension ref="A1:Y50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="V2" sqref="V2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -827,8 +827,8 @@
   <protectedRanges>
     <protectedRange algorithmName="SHA-512" hashValue="UzA0nOFUeaFtULQSIT4958zhoYyTmirahG2yNfR1IG/8l49DY8qF3CYXVXIUJIJtfHaTg0AH2Mgy69FLGfFI8g==" saltValue="s1fm+kLliY0bj7VgCAWACg==" spinCount="100000" sqref="A1:B1" name="区域1"/>
   </protectedRanges>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2:V50" xr:uid="{5F61F7B2-06E6-AC49-9654-36CA24174C22}">
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V3:V50" xr:uid="{5F61F7B2-06E6-AC49-9654-36CA24174C22}">
       <formula1>"卡车派送,UPS,FEDEX,DHL,DPD,TNT,客户自提,仓储上架,暂扣留仓,整柜直送,大货中转,亚马逊自提,UPS LTL,LTL,PICKUP BY CNEE,STORED IN W.H.,PARCEL WITH LABEL,PARCEL WITHOUT LABEL,FTL,FCL"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2:W50" xr:uid="{AE7D9BBC-EE55-2549-A233-61799DCDACCF}">
@@ -836,6 +836,9 @@
     </dataValidation>
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="录入提示" error="不能修改标题" sqref="B1" xr:uid="{950C7A98-8ED7-1046-96B0-D59875A5F2C0}">
       <formula1>"快递类型"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2" xr:uid="{BC2769D7-F526-D64A-9C2B-D404F031CFCF}">
+      <formula1>"卡车派送,UPS,FEDEX,DHL,DPD,TNT,客户自提,仓储上架,暂扣留仓(HOLD),整柜直送,大货中转,亚马逊自提,UPS LTL,LTL,PICKUP BY CNEE,STORED IN W.H.,PARCEL WITH LABEL,PARCEL WITHOUT LABEL,FTL,FCL"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/warehouse/templates/export_file/packing_list_template.xlsx
+++ b/warehouse/templates/export_file/packing_list_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuxiang.li/Documents/learning/zem/warehouse/warehouse/templates/export_file/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E89F6858-5AE4-0345-955C-D9436171BD1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C3E9691-3F33-0342-9816-B7F81B3E114F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="10480" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -508,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Y50"/>
+  <dimension ref="A1:Y60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V2" sqref="V2"/>
+      <selection activeCell="W61" sqref="W61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -823,21 +823,58 @@
       <c r="V50" s="1"/>
       <c r="W50" s="1"/>
     </row>
+    <row r="51" spans="22:23">
+      <c r="V51" s="1"/>
+      <c r="W51" s="1"/>
+    </row>
+    <row r="52" spans="22:23">
+      <c r="V52" s="1"/>
+      <c r="W52" s="1"/>
+    </row>
+    <row r="53" spans="22:23">
+      <c r="V53" s="1"/>
+      <c r="W53" s="1"/>
+    </row>
+    <row r="54" spans="22:23">
+      <c r="V54" s="1"/>
+      <c r="W54" s="1"/>
+    </row>
+    <row r="55" spans="22:23">
+      <c r="V55" s="1"/>
+      <c r="W55" s="1"/>
+    </row>
+    <row r="56" spans="22:23">
+      <c r="V56" s="1"/>
+      <c r="W56" s="1"/>
+    </row>
+    <row r="57" spans="22:23">
+      <c r="V57" s="1"/>
+      <c r="W57" s="1"/>
+    </row>
+    <row r="58" spans="22:23">
+      <c r="V58" s="1"/>
+      <c r="W58" s="1"/>
+    </row>
+    <row r="59" spans="22:23">
+      <c r="V59" s="1"/>
+      <c r="W59" s="1"/>
+    </row>
+    <row r="60" spans="22:23">
+      <c r="V60" s="1"/>
+      <c r="W60" s="1"/>
+    </row>
   </sheetData>
   <protectedRanges>
     <protectedRange algorithmName="SHA-512" hashValue="UzA0nOFUeaFtULQSIT4958zhoYyTmirahG2yNfR1IG/8l49DY8qF3CYXVXIUJIJtfHaTg0AH2Mgy69FLGfFI8g==" saltValue="s1fm+kLliY0bj7VgCAWACg==" spinCount="100000" sqref="A1:B1" name="区域1"/>
   </protectedRanges>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V3:V50" xr:uid="{5F61F7B2-06E6-AC49-9654-36CA24174C22}">
-      <formula1>"卡车派送,UPS,FEDEX,DHL,DPD,TNT,客户自提,仓储上架,暂扣留仓,整柜直送,大货中转,亚马逊自提,UPS LTL,LTL,PICKUP BY CNEE,STORED IN W.H.,PARCEL WITH LABEL,PARCEL WITHOUT LABEL,FTL,FCL"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2:W50" xr:uid="{AE7D9BBC-EE55-2549-A233-61799DCDACCF}">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2:W60" xr:uid="{AE7D9BBC-EE55-2549-A233-61799DCDACCF}">
       <formula1>"UPS,FEDEX,DHL,DPD,TNT"</formula1>
     </dataValidation>
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="录入提示" error="不能修改标题" sqref="B1" xr:uid="{950C7A98-8ED7-1046-96B0-D59875A5F2C0}">
       <formula1>"快递类型"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2" xr:uid="{BC2769D7-F526-D64A-9C2B-D404F031CFCF}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2:V60" xr:uid="{BC2769D7-F526-D64A-9C2B-D404F031CFCF}">
       <formula1>"卡车派送,UPS,FEDEX,DHL,DPD,TNT,客户自提,仓储上架,暂扣留仓(HOLD),整柜直送,大货中转,亚马逊自提,UPS LTL,LTL,PICKUP BY CNEE,STORED IN W.H.,PARCEL WITH LABEL,PARCEL WITHOUT LABEL,FTL,FCL"</formula1>
     </dataValidation>
   </dataValidations>

--- a/warehouse/templates/export_file/packing_list_template.xlsx
+++ b/warehouse/templates/export_file/packing_list_template.xlsx
@@ -1,26 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10609"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuxiang.li/Documents/learning/zem/warehouse/warehouse/templates/export_file/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C3E9691-3F33-0342-9816-B7F81B3E114F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="10480" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="27950" windowHeight="12280"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>唛头</t>
   </si>
@@ -70,6 +77,12 @@
     <t>邮编</t>
   </si>
   <si>
+    <t>收件人</t>
+  </si>
+  <si>
+    <t>联系方式</t>
+  </si>
+  <si>
     <t>仓库/私人 地址</t>
   </si>
   <si>
@@ -79,6 +92,9 @@
     <t>Amazon Reference ID</t>
   </si>
   <si>
+    <t>最早派送时间</t>
+  </si>
+  <si>
     <t>派送方式</t>
   </si>
   <si>
@@ -89,53 +105,39 @@
   </si>
   <si>
     <t>备注</t>
-  </si>
-  <si>
-    <t>收件人</t>
-  </si>
-  <si>
-    <t>联系方式</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[$-1010804]General"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="[$-1010804]General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <name val="Microsoft YaHei UI"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -143,18 +145,172 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Microsoft YaHei UI"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -167,8 +323,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -191,60 +533,346 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="24" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="5">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
-    <cellStyle name="常规 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
-    <cellStyle name="常规_11BOS01 PI YW-EPI11007" xfId="2" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
-    <cellStyle name="普通 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
+  <cellStyles count="53">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 2 2" xfId="50"/>
+    <cellStyle name="常规_11BOS01 PI YW-EPI11007" xfId="51"/>
+    <cellStyle name="普通 2" xfId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FFFFFF00"/>
-      <color rgb="FF000000"/>
+      <color rgb="00FFFF00"/>
+      <color rgb="00000000"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -502,38 +1130,39 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Y60"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:Z60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W61" sqref="W61"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="V7" sqref="V7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="15.5" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" customWidth="1"/>
-    <col min="4" max="6" width="8.33203125" customWidth="1"/>
+    <col min="2" max="2" width="11.3333333333333" customWidth="1"/>
+    <col min="4" max="6" width="8.33333333333333" customWidth="1"/>
     <col min="7" max="10" width="10" customWidth="1"/>
-    <col min="11" max="14" width="8.33203125" customWidth="1"/>
+    <col min="11" max="14" width="8.33333333333333" customWidth="1"/>
     <col min="15" max="15" width="11" customWidth="1"/>
-    <col min="16" max="16" width="11.1640625" customWidth="1"/>
-    <col min="17" max="18" width="13.33203125" customWidth="1"/>
+    <col min="16" max="16" width="11.1666666666667" customWidth="1"/>
+    <col min="17" max="18" width="13.3333333333333" customWidth="1"/>
     <col min="19" max="19" width="16" customWidth="1"/>
     <col min="20" max="20" width="20.5" customWidth="1"/>
     <col min="21" max="21" width="26" customWidth="1"/>
-    <col min="22" max="22" width="11.1640625" customWidth="1"/>
-    <col min="23" max="23" width="10.6640625" customWidth="1"/>
-    <col min="24" max="24" width="10.33203125" customWidth="1"/>
-    <col min="25" max="25" width="18.83203125" customWidth="1"/>
+    <col min="22" max="22" width="18.0833333333333" customWidth="1"/>
+    <col min="23" max="23" width="11.1666666666667" customWidth="1"/>
+    <col min="24" max="24" width="10.6666666666667" customWidth="1"/>
+    <col min="25" max="25" width="10.3333333333333" customWidth="1"/>
+    <col min="26" max="26" width="18.8333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="5" customFormat="1" ht="29" customHeight="1">
+    <row r="1" s="1" customFormat="1" ht="29" customHeight="1" spans="1:26">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -583,311 +1212,373 @@
         <v>15</v>
       </c>
       <c r="Q1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="S1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="U1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="W1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="X1" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y1" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25">
-      <c r="A2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-    </row>
-    <row r="3" spans="1:25">
-      <c r="A3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
-    </row>
-    <row r="4" spans="1:25">
-      <c r="V4" s="1"/>
-      <c r="W4" s="1"/>
-    </row>
-    <row r="5" spans="1:25">
-      <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
-    </row>
-    <row r="6" spans="1:25">
-      <c r="V6" s="1"/>
-      <c r="W6" s="1"/>
-    </row>
-    <row r="7" spans="1:25">
-      <c r="V7" s="1"/>
-      <c r="W7" s="1"/>
-    </row>
-    <row r="8" spans="1:25">
-      <c r="V8" s="1"/>
-      <c r="W8" s="1"/>
-    </row>
-    <row r="9" spans="1:25">
-      <c r="V9" s="1"/>
-      <c r="W9" s="1"/>
-    </row>
-    <row r="10" spans="1:25">
-      <c r="V10" s="1"/>
-      <c r="W10" s="1"/>
-    </row>
-    <row r="11" spans="1:25">
-      <c r="V11" s="1"/>
-      <c r="W11" s="1"/>
-    </row>
-    <row r="12" spans="1:25">
-      <c r="V12" s="1"/>
-      <c r="W12" s="1"/>
-    </row>
-    <row r="13" spans="1:25">
-      <c r="V13" s="1"/>
-      <c r="W13" s="1"/>
-    </row>
-    <row r="14" spans="1:25">
-      <c r="V14" s="1"/>
-      <c r="W14" s="1"/>
-    </row>
-    <row r="15" spans="1:25">
-      <c r="V15" s="1"/>
-      <c r="W15" s="1"/>
-    </row>
-    <row r="16" spans="1:25">
-      <c r="V16" s="1"/>
-      <c r="W16" s="1"/>
-    </row>
-    <row r="17" spans="22:23">
-      <c r="V17" s="1"/>
-      <c r="W17" s="1"/>
-    </row>
-    <row r="18" spans="22:23">
-      <c r="V18" s="1"/>
-      <c r="W18" s="1"/>
-    </row>
-    <row r="19" spans="22:23">
-      <c r="V19" s="1"/>
-      <c r="W19" s="1"/>
-    </row>
-    <row r="20" spans="22:23">
-      <c r="V20" s="1"/>
-      <c r="W20" s="1"/>
-    </row>
-    <row r="21" spans="22:23">
-      <c r="V21" s="1"/>
-      <c r="W21" s="1"/>
-    </row>
-    <row r="22" spans="22:23">
-      <c r="V22" s="1"/>
-      <c r="W22" s="1"/>
-    </row>
-    <row r="23" spans="22:23">
-      <c r="V23" s="1"/>
-      <c r="W23" s="1"/>
-    </row>
-    <row r="24" spans="22:23">
-      <c r="V24" s="1"/>
-      <c r="W24" s="1"/>
-    </row>
-    <row r="25" spans="22:23">
-      <c r="V25" s="1"/>
-      <c r="W25" s="1"/>
-    </row>
-    <row r="26" spans="22:23">
-      <c r="V26" s="1"/>
-      <c r="W26" s="1"/>
-    </row>
-    <row r="27" spans="22:23">
-      <c r="V27" s="1"/>
-      <c r="W27" s="1"/>
-    </row>
-    <row r="28" spans="22:23">
-      <c r="V28" s="1"/>
-      <c r="W28" s="1"/>
-    </row>
-    <row r="29" spans="22:23">
-      <c r="V29" s="1"/>
-      <c r="W29" s="1"/>
-    </row>
-    <row r="30" spans="22:23">
-      <c r="V30" s="1"/>
-      <c r="W30" s="1"/>
-    </row>
-    <row r="31" spans="22:23">
-      <c r="V31" s="1"/>
-      <c r="W31" s="1"/>
-    </row>
-    <row r="32" spans="22:23">
-      <c r="V32" s="1"/>
-      <c r="W32" s="1"/>
-    </row>
-    <row r="33" spans="22:23">
-      <c r="V33" s="1"/>
-      <c r="W33" s="1"/>
-    </row>
-    <row r="34" spans="22:23">
-      <c r="V34" s="1"/>
-      <c r="W34" s="1"/>
-    </row>
-    <row r="35" spans="22:23">
-      <c r="V35" s="1"/>
-      <c r="W35" s="1"/>
-    </row>
-    <row r="36" spans="22:23">
-      <c r="V36" s="1"/>
-      <c r="W36" s="1"/>
-    </row>
-    <row r="37" spans="22:23">
-      <c r="V37" s="1"/>
-      <c r="W37" s="1"/>
-    </row>
-    <row r="38" spans="22:23">
-      <c r="V38" s="1"/>
-      <c r="W38" s="1"/>
-    </row>
-    <row r="39" spans="22:23">
-      <c r="V39" s="1"/>
-      <c r="W39" s="1"/>
-    </row>
-    <row r="40" spans="22:23">
-      <c r="V40" s="1"/>
-      <c r="W40" s="1"/>
-    </row>
-    <row r="41" spans="22:23">
-      <c r="V41" s="1"/>
-      <c r="W41" s="1"/>
-    </row>
-    <row r="42" spans="22:23">
-      <c r="V42" s="1"/>
-      <c r="W42" s="1"/>
-    </row>
-    <row r="43" spans="22:23">
-      <c r="V43" s="1"/>
-      <c r="W43" s="1"/>
-    </row>
-    <row r="44" spans="22:23">
-      <c r="V44" s="1"/>
-      <c r="W44" s="1"/>
-    </row>
-    <row r="45" spans="22:23">
-      <c r="V45" s="1"/>
-      <c r="W45" s="1"/>
-    </row>
-    <row r="46" spans="22:23">
-      <c r="V46" s="1"/>
-      <c r="W46" s="1"/>
-    </row>
-    <row r="47" spans="22:23">
-      <c r="V47" s="1"/>
-      <c r="W47" s="1"/>
-    </row>
-    <row r="48" spans="22:23">
-      <c r="V48" s="1"/>
-      <c r="W48" s="1"/>
-    </row>
-    <row r="49" spans="22:23">
-      <c r="V49" s="1"/>
-      <c r="W49" s="1"/>
-    </row>
-    <row r="50" spans="22:23">
-      <c r="V50" s="1"/>
-      <c r="W50" s="1"/>
-    </row>
-    <row r="51" spans="22:23">
-      <c r="V51" s="1"/>
-      <c r="W51" s="1"/>
-    </row>
-    <row r="52" spans="22:23">
-      <c r="V52" s="1"/>
-      <c r="W52" s="1"/>
-    </row>
-    <row r="53" spans="22:23">
-      <c r="V53" s="1"/>
-      <c r="W53" s="1"/>
-    </row>
-    <row r="54" spans="22:23">
-      <c r="V54" s="1"/>
-      <c r="W54" s="1"/>
-    </row>
-    <row r="55" spans="22:23">
-      <c r="V55" s="1"/>
-      <c r="W55" s="1"/>
-    </row>
-    <row r="56" spans="22:23">
-      <c r="V56" s="1"/>
-      <c r="W56" s="1"/>
-    </row>
-    <row r="57" spans="22:23">
-      <c r="V57" s="1"/>
-      <c r="W57" s="1"/>
-    </row>
-    <row r="58" spans="22:23">
-      <c r="V58" s="1"/>
-      <c r="W58" s="1"/>
-    </row>
-    <row r="59" spans="22:23">
-      <c r="V59" s="1"/>
-      <c r="W59" s="1"/>
-    </row>
-    <row r="60" spans="22:23">
-      <c r="V60" s="1"/>
-      <c r="W60" s="1"/>
+      <c r="Z1" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24">
+      <c r="A2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6"/>
+      <c r="X2" s="6"/>
+    </row>
+    <row r="3" spans="1:24">
+      <c r="A3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6"/>
+    </row>
+    <row r="4" spans="22:24">
+      <c r="V4" s="6"/>
+      <c r="W4" s="6"/>
+      <c r="X4" s="6"/>
+    </row>
+    <row r="5" spans="22:24">
+      <c r="V5" s="6"/>
+      <c r="W5" s="6"/>
+      <c r="X5" s="6"/>
+    </row>
+    <row r="6" spans="22:24">
+      <c r="V6" s="6"/>
+      <c r="W6" s="6"/>
+      <c r="X6" s="6"/>
+    </row>
+    <row r="7" spans="22:24">
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
+    </row>
+    <row r="8" spans="22:24">
+      <c r="V8" s="6"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="6"/>
+    </row>
+    <row r="9" spans="22:24">
+      <c r="V9" s="6"/>
+      <c r="W9" s="6"/>
+      <c r="X9" s="6"/>
+    </row>
+    <row r="10" spans="22:24">
+      <c r="V10" s="6"/>
+      <c r="W10" s="6"/>
+      <c r="X10" s="6"/>
+    </row>
+    <row r="11" spans="22:24">
+      <c r="V11" s="6"/>
+      <c r="W11" s="6"/>
+      <c r="X11" s="6"/>
+    </row>
+    <row r="12" spans="22:24">
+      <c r="V12" s="6"/>
+      <c r="W12" s="6"/>
+      <c r="X12" s="6"/>
+    </row>
+    <row r="13" spans="22:24">
+      <c r="V13" s="6"/>
+      <c r="W13" s="6"/>
+      <c r="X13" s="6"/>
+    </row>
+    <row r="14" spans="22:24">
+      <c r="V14" s="6"/>
+      <c r="W14" s="6"/>
+      <c r="X14" s="6"/>
+    </row>
+    <row r="15" spans="22:24">
+      <c r="V15" s="6"/>
+      <c r="W15" s="6"/>
+      <c r="X15" s="6"/>
+    </row>
+    <row r="16" spans="22:24">
+      <c r="V16" s="6"/>
+      <c r="W16" s="6"/>
+      <c r="X16" s="6"/>
+    </row>
+    <row r="17" spans="22:24">
+      <c r="V17" s="6"/>
+      <c r="W17" s="6"/>
+      <c r="X17" s="6"/>
+    </row>
+    <row r="18" spans="22:24">
+      <c r="V18" s="6"/>
+      <c r="W18" s="6"/>
+      <c r="X18" s="6"/>
+    </row>
+    <row r="19" spans="22:24">
+      <c r="V19" s="6"/>
+      <c r="W19" s="6"/>
+      <c r="X19" s="6"/>
+    </row>
+    <row r="20" spans="22:24">
+      <c r="V20" s="6"/>
+      <c r="W20" s="6"/>
+      <c r="X20" s="6"/>
+    </row>
+    <row r="21" spans="22:24">
+      <c r="V21" s="6"/>
+      <c r="W21" s="6"/>
+      <c r="X21" s="6"/>
+    </row>
+    <row r="22" spans="22:24">
+      <c r="V22" s="6"/>
+      <c r="W22" s="6"/>
+      <c r="X22" s="6"/>
+    </row>
+    <row r="23" spans="22:24">
+      <c r="V23" s="6"/>
+      <c r="W23" s="6"/>
+      <c r="X23" s="6"/>
+    </row>
+    <row r="24" spans="22:24">
+      <c r="V24" s="6"/>
+      <c r="W24" s="6"/>
+      <c r="X24" s="6"/>
+    </row>
+    <row r="25" spans="22:24">
+      <c r="V25" s="6"/>
+      <c r="W25" s="6"/>
+      <c r="X25" s="6"/>
+    </row>
+    <row r="26" spans="22:24">
+      <c r="V26" s="6"/>
+      <c r="W26" s="6"/>
+      <c r="X26" s="6"/>
+    </row>
+    <row r="27" spans="22:24">
+      <c r="V27" s="6"/>
+      <c r="W27" s="6"/>
+      <c r="X27" s="6"/>
+    </row>
+    <row r="28" spans="22:24">
+      <c r="V28" s="6"/>
+      <c r="W28" s="6"/>
+      <c r="X28" s="6"/>
+    </row>
+    <row r="29" spans="22:24">
+      <c r="V29" s="6"/>
+      <c r="W29" s="6"/>
+      <c r="X29" s="6"/>
+    </row>
+    <row r="30" spans="22:24">
+      <c r="V30" s="6"/>
+      <c r="W30" s="6"/>
+      <c r="X30" s="6"/>
+    </row>
+    <row r="31" spans="22:24">
+      <c r="V31" s="6"/>
+      <c r="W31" s="6"/>
+      <c r="X31" s="6"/>
+    </row>
+    <row r="32" spans="22:24">
+      <c r="V32" s="6"/>
+      <c r="W32" s="6"/>
+      <c r="X32" s="6"/>
+    </row>
+    <row r="33" spans="22:24">
+      <c r="V33" s="6"/>
+      <c r="W33" s="6"/>
+      <c r="X33" s="6"/>
+    </row>
+    <row r="34" spans="22:24">
+      <c r="V34" s="6"/>
+      <c r="W34" s="6"/>
+      <c r="X34" s="6"/>
+    </row>
+    <row r="35" spans="22:24">
+      <c r="V35" s="6"/>
+      <c r="W35" s="6"/>
+      <c r="X35" s="6"/>
+    </row>
+    <row r="36" spans="22:24">
+      <c r="V36" s="6"/>
+      <c r="W36" s="6"/>
+      <c r="X36" s="6"/>
+    </row>
+    <row r="37" spans="22:24">
+      <c r="V37" s="6"/>
+      <c r="W37" s="6"/>
+      <c r="X37" s="6"/>
+    </row>
+    <row r="38" spans="22:24">
+      <c r="V38" s="6"/>
+      <c r="W38" s="6"/>
+      <c r="X38" s="6"/>
+    </row>
+    <row r="39" spans="22:24">
+      <c r="V39" s="6"/>
+      <c r="W39" s="6"/>
+      <c r="X39" s="6"/>
+    </row>
+    <row r="40" spans="22:24">
+      <c r="V40" s="6"/>
+      <c r="W40" s="6"/>
+      <c r="X40" s="6"/>
+    </row>
+    <row r="41" spans="22:24">
+      <c r="V41" s="6"/>
+      <c r="W41" s="6"/>
+      <c r="X41" s="6"/>
+    </row>
+    <row r="42" spans="22:24">
+      <c r="V42" s="6"/>
+      <c r="W42" s="6"/>
+      <c r="X42" s="6"/>
+    </row>
+    <row r="43" spans="22:24">
+      <c r="V43" s="6"/>
+      <c r="W43" s="6"/>
+      <c r="X43" s="6"/>
+    </row>
+    <row r="44" spans="22:24">
+      <c r="V44" s="6"/>
+      <c r="W44" s="6"/>
+      <c r="X44" s="6"/>
+    </row>
+    <row r="45" spans="22:24">
+      <c r="V45" s="6"/>
+      <c r="W45" s="6"/>
+      <c r="X45" s="6"/>
+    </row>
+    <row r="46" spans="22:24">
+      <c r="V46" s="6"/>
+      <c r="W46" s="6"/>
+      <c r="X46" s="6"/>
+    </row>
+    <row r="47" spans="22:24">
+      <c r="V47" s="6"/>
+      <c r="W47" s="6"/>
+      <c r="X47" s="6"/>
+    </row>
+    <row r="48" spans="22:24">
+      <c r="V48" s="6"/>
+      <c r="W48" s="6"/>
+      <c r="X48" s="6"/>
+    </row>
+    <row r="49" spans="22:24">
+      <c r="V49" s="6"/>
+      <c r="W49" s="6"/>
+      <c r="X49" s="6"/>
+    </row>
+    <row r="50" spans="22:24">
+      <c r="V50" s="6"/>
+      <c r="W50" s="6"/>
+      <c r="X50" s="6"/>
+    </row>
+    <row r="51" spans="22:24">
+      <c r="V51" s="6"/>
+      <c r="W51" s="6"/>
+      <c r="X51" s="6"/>
+    </row>
+    <row r="52" spans="22:24">
+      <c r="V52" s="6"/>
+      <c r="W52" s="6"/>
+      <c r="X52" s="6"/>
+    </row>
+    <row r="53" spans="22:24">
+      <c r="V53" s="6"/>
+      <c r="W53" s="6"/>
+      <c r="X53" s="6"/>
+    </row>
+    <row r="54" spans="22:24">
+      <c r="V54" s="6"/>
+      <c r="W54" s="6"/>
+      <c r="X54" s="6"/>
+    </row>
+    <row r="55" spans="22:24">
+      <c r="V55" s="6"/>
+      <c r="W55" s="6"/>
+      <c r="X55" s="6"/>
+    </row>
+    <row r="56" spans="22:24">
+      <c r="V56" s="6"/>
+      <c r="W56" s="6"/>
+      <c r="X56" s="6"/>
+    </row>
+    <row r="57" spans="22:24">
+      <c r="V57" s="6"/>
+      <c r="W57" s="6"/>
+      <c r="X57" s="6"/>
+    </row>
+    <row r="58" spans="22:24">
+      <c r="V58" s="6"/>
+      <c r="W58" s="6"/>
+      <c r="X58" s="6"/>
+    </row>
+    <row r="59" spans="22:24">
+      <c r="V59" s="6"/>
+      <c r="W59" s="6"/>
+      <c r="X59" s="6"/>
+    </row>
+    <row r="60" spans="22:24">
+      <c r="V60" s="6"/>
+      <c r="W60" s="6"/>
+      <c r="X60" s="6"/>
     </row>
   </sheetData>
   <protectedRanges>
     <protectedRange algorithmName="SHA-512" hashValue="UzA0nOFUeaFtULQSIT4958zhoYyTmirahG2yNfR1IG/8l49DY8qF3CYXVXIUJIJtfHaTg0AH2Mgy69FLGfFI8g==" saltValue="s1fm+kLliY0bj7VgCAWACg==" spinCount="100000" sqref="A1:B1" name="区域1"/>
   </protectedRanges>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2:W60" xr:uid="{AE7D9BBC-EE55-2549-A233-61799DCDACCF}">
-      <formula1>"UPS,FEDEX,DHL,DPD,TNT"</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="录入提示" error="不能修改标题" sqref="B1" xr:uid="{950C7A98-8ED7-1046-96B0-D59875A5F2C0}">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="录入提示" error="不能修改标题" sqref="B1">
       <formula1>"快递类型"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2:V60" xr:uid="{BC2769D7-F526-D64A-9C2B-D404F031CFCF}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2:V60 W2:W60">
       <formula1>"卡车派送,UPS,FEDEX,DHL,DPD,TNT,客户自提,仓储上架,暂扣留仓(HOLD),整柜直送,大货中转,亚马逊自提,UPS LTL,LTL,PICKUP BY CNEE,STORED IN W.H.,PARCEL WITH LABEL,PARCEL WITHOUT LABEL,FTL,FCL"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X2:X60">
+      <formula1>"UPS,FEDEX,DHL,DPD,TNT"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
-  <rangeList sheetStid="1" master="">
+  <rangeList sheetStid="2" master="" otherUserPermission="visible">
     <arrUserId title="区域1" rangeCreator="" othersAccessPermission="edit"/>
   </rangeList>
-  <rangeList sheetStid="2" master=""/>
 </allowEditUser>
 </file>
 

--- a/warehouse/templates/export_file/packing_list_template.xlsx
+++ b/warehouse/templates/export_file/packing_list_template.xlsx
@@ -1,26 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10609"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuxiang.li/Documents/learning/zem/warehouse/warehouse/templates/export_file/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C3E9691-3F33-0342-9816-B7F81B3E114F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="10480" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="21600" windowHeight="9555"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>唛头</t>
   </si>
@@ -70,6 +77,12 @@
     <t>邮编</t>
   </si>
   <si>
+    <t>收件人</t>
+  </si>
+  <si>
+    <t>联系方式</t>
+  </si>
+  <si>
     <t>仓库/私人 地址</t>
   </si>
   <si>
@@ -91,51 +104,43 @@
     <t>备注</t>
   </si>
   <si>
-    <t>收件人</t>
-  </si>
-  <si>
-    <t>联系方式</t>
+    <t>最早派送时间</t>
+  </si>
+  <si>
+    <t>最晚派送时间</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[$-1010804]General"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="[$-1010804]General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <name val="Microsoft YaHei UI"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -143,18 +148,172 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Microsoft YaHei UI"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -167,8 +326,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -191,60 +536,346 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="24" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="5">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
-    <cellStyle name="常规 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
-    <cellStyle name="常规_11BOS01 PI YW-EPI11007" xfId="2" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
-    <cellStyle name="普通 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
+  <cellStyles count="53">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 2 2" xfId="50"/>
+    <cellStyle name="常规_11BOS01 PI YW-EPI11007" xfId="51"/>
+    <cellStyle name="普通 2" xfId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FFFFFF00"/>
-      <color rgb="FF000000"/>
+      <color rgb="00FFFF00"/>
+      <color rgb="00000000"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -502,38 +1133,38 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Y60"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AA60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W61" sqref="W61"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="AA5" sqref="AA5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.85"/>
   <cols>
-    <col min="1" max="1" width="15.5" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" customWidth="1"/>
-    <col min="4" max="6" width="8.33203125" customWidth="1"/>
+    <col min="1" max="1" width="15.5044247787611" customWidth="1"/>
+    <col min="2" max="2" width="11.3362831858407" customWidth="1"/>
+    <col min="4" max="6" width="8.33628318584071" customWidth="1"/>
     <col min="7" max="10" width="10" customWidth="1"/>
-    <col min="11" max="14" width="8.33203125" customWidth="1"/>
+    <col min="11" max="14" width="8.33628318584071" customWidth="1"/>
     <col min="15" max="15" width="11" customWidth="1"/>
-    <col min="16" max="16" width="11.1640625" customWidth="1"/>
-    <col min="17" max="18" width="13.33203125" customWidth="1"/>
+    <col min="16" max="16" width="11.1681415929204" customWidth="1"/>
+    <col min="17" max="18" width="13.3362831858407" customWidth="1"/>
     <col min="19" max="19" width="16" customWidth="1"/>
-    <col min="20" max="20" width="20.5" customWidth="1"/>
+    <col min="20" max="20" width="20.5044247787611" customWidth="1"/>
     <col min="21" max="21" width="26" customWidth="1"/>
-    <col min="22" max="22" width="11.1640625" customWidth="1"/>
-    <col min="23" max="23" width="10.6640625" customWidth="1"/>
-    <col min="24" max="24" width="10.33203125" customWidth="1"/>
-    <col min="25" max="25" width="18.83203125" customWidth="1"/>
+    <col min="22" max="22" width="11.1681415929204" customWidth="1"/>
+    <col min="23" max="23" width="10.6637168141593" customWidth="1"/>
+    <col min="24" max="24" width="10.3362831858407" customWidth="1"/>
+    <col min="25" max="25" width="18.8318584070796" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="5" customFormat="1" ht="29" customHeight="1">
+    <row r="1" s="1" customFormat="1" ht="29" customHeight="1" spans="1:27">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -583,311 +1214,317 @@
         <v>15</v>
       </c>
       <c r="Q1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="S1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="U1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="W1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="X1" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y1" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25">
-      <c r="A2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-    </row>
-    <row r="3" spans="1:25">
-      <c r="A3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
-    </row>
-    <row r="4" spans="1:25">
-      <c r="V4" s="1"/>
-      <c r="W4" s="1"/>
-    </row>
-    <row r="5" spans="1:25">
-      <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
-    </row>
-    <row r="6" spans="1:25">
-      <c r="V6" s="1"/>
-      <c r="W6" s="1"/>
-    </row>
-    <row r="7" spans="1:25">
-      <c r="V7" s="1"/>
-      <c r="W7" s="1"/>
-    </row>
-    <row r="8" spans="1:25">
-      <c r="V8" s="1"/>
-      <c r="W8" s="1"/>
-    </row>
-    <row r="9" spans="1:25">
-      <c r="V9" s="1"/>
-      <c r="W9" s="1"/>
-    </row>
-    <row r="10" spans="1:25">
-      <c r="V10" s="1"/>
-      <c r="W10" s="1"/>
-    </row>
-    <row r="11" spans="1:25">
-      <c r="V11" s="1"/>
-      <c r="W11" s="1"/>
-    </row>
-    <row r="12" spans="1:25">
-      <c r="V12" s="1"/>
-      <c r="W12" s="1"/>
-    </row>
-    <row r="13" spans="1:25">
-      <c r="V13" s="1"/>
-      <c r="W13" s="1"/>
-    </row>
-    <row r="14" spans="1:25">
-      <c r="V14" s="1"/>
-      <c r="W14" s="1"/>
-    </row>
-    <row r="15" spans="1:25">
-      <c r="V15" s="1"/>
-      <c r="W15" s="1"/>
-    </row>
-    <row r="16" spans="1:25">
-      <c r="V16" s="1"/>
-      <c r="W16" s="1"/>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
+      <c r="A2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6"/>
+    </row>
+    <row r="3" spans="1:23">
+      <c r="A3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+    </row>
+    <row r="4" spans="22:23">
+      <c r="V4" s="6"/>
+      <c r="W4" s="6"/>
+    </row>
+    <row r="5" spans="22:23">
+      <c r="V5" s="6"/>
+      <c r="W5" s="6"/>
+    </row>
+    <row r="6" spans="22:23">
+      <c r="V6" s="6"/>
+      <c r="W6" s="6"/>
+    </row>
+    <row r="7" spans="22:23">
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+    </row>
+    <row r="8" spans="22:23">
+      <c r="V8" s="6"/>
+      <c r="W8" s="6"/>
+    </row>
+    <row r="9" spans="22:23">
+      <c r="V9" s="6"/>
+      <c r="W9" s="6"/>
+    </row>
+    <row r="10" spans="22:23">
+      <c r="V10" s="6"/>
+      <c r="W10" s="6"/>
+    </row>
+    <row r="11" spans="22:23">
+      <c r="V11" s="6"/>
+      <c r="W11" s="6"/>
+    </row>
+    <row r="12" spans="22:23">
+      <c r="V12" s="6"/>
+      <c r="W12" s="6"/>
+    </row>
+    <row r="13" spans="22:23">
+      <c r="V13" s="6"/>
+      <c r="W13" s="6"/>
+    </row>
+    <row r="14" spans="22:23">
+      <c r="V14" s="6"/>
+      <c r="W14" s="6"/>
+    </row>
+    <row r="15" spans="22:23">
+      <c r="V15" s="6"/>
+      <c r="W15" s="6"/>
+    </row>
+    <row r="16" spans="22:23">
+      <c r="V16" s="6"/>
+      <c r="W16" s="6"/>
     </row>
     <row r="17" spans="22:23">
-      <c r="V17" s="1"/>
-      <c r="W17" s="1"/>
+      <c r="V17" s="6"/>
+      <c r="W17" s="6"/>
     </row>
     <row r="18" spans="22:23">
-      <c r="V18" s="1"/>
-      <c r="W18" s="1"/>
+      <c r="V18" s="6"/>
+      <c r="W18" s="6"/>
     </row>
     <row r="19" spans="22:23">
-      <c r="V19" s="1"/>
-      <c r="W19" s="1"/>
+      <c r="V19" s="6"/>
+      <c r="W19" s="6"/>
     </row>
     <row r="20" spans="22:23">
-      <c r="V20" s="1"/>
-      <c r="W20" s="1"/>
+      <c r="V20" s="6"/>
+      <c r="W20" s="6"/>
     </row>
     <row r="21" spans="22:23">
-      <c r="V21" s="1"/>
-      <c r="W21" s="1"/>
+      <c r="V21" s="6"/>
+      <c r="W21" s="6"/>
     </row>
     <row r="22" spans="22:23">
-      <c r="V22" s="1"/>
-      <c r="W22" s="1"/>
+      <c r="V22" s="6"/>
+      <c r="W22" s="6"/>
     </row>
     <row r="23" spans="22:23">
-      <c r="V23" s="1"/>
-      <c r="W23" s="1"/>
+      <c r="V23" s="6"/>
+      <c r="W23" s="6"/>
     </row>
     <row r="24" spans="22:23">
-      <c r="V24" s="1"/>
-      <c r="W24" s="1"/>
+      <c r="V24" s="6"/>
+      <c r="W24" s="6"/>
     </row>
     <row r="25" spans="22:23">
-      <c r="V25" s="1"/>
-      <c r="W25" s="1"/>
+      <c r="V25" s="6"/>
+      <c r="W25" s="6"/>
     </row>
     <row r="26" spans="22:23">
-      <c r="V26" s="1"/>
-      <c r="W26" s="1"/>
+      <c r="V26" s="6"/>
+      <c r="W26" s="6"/>
     </row>
     <row r="27" spans="22:23">
-      <c r="V27" s="1"/>
-      <c r="W27" s="1"/>
+      <c r="V27" s="6"/>
+      <c r="W27" s="6"/>
     </row>
     <row r="28" spans="22:23">
-      <c r="V28" s="1"/>
-      <c r="W28" s="1"/>
+      <c r="V28" s="6"/>
+      <c r="W28" s="6"/>
     </row>
     <row r="29" spans="22:23">
-      <c r="V29" s="1"/>
-      <c r="W29" s="1"/>
+      <c r="V29" s="6"/>
+      <c r="W29" s="6"/>
     </row>
     <row r="30" spans="22:23">
-      <c r="V30" s="1"/>
-      <c r="W30" s="1"/>
+      <c r="V30" s="6"/>
+      <c r="W30" s="6"/>
     </row>
     <row r="31" spans="22:23">
-      <c r="V31" s="1"/>
-      <c r="W31" s="1"/>
+      <c r="V31" s="6"/>
+      <c r="W31" s="6"/>
     </row>
     <row r="32" spans="22:23">
-      <c r="V32" s="1"/>
-      <c r="W32" s="1"/>
+      <c r="V32" s="6"/>
+      <c r="W32" s="6"/>
     </row>
     <row r="33" spans="22:23">
-      <c r="V33" s="1"/>
-      <c r="W33" s="1"/>
+      <c r="V33" s="6"/>
+      <c r="W33" s="6"/>
     </row>
     <row r="34" spans="22:23">
-      <c r="V34" s="1"/>
-      <c r="W34" s="1"/>
+      <c r="V34" s="6"/>
+      <c r="W34" s="6"/>
     </row>
     <row r="35" spans="22:23">
-      <c r="V35" s="1"/>
-      <c r="W35" s="1"/>
+      <c r="V35" s="6"/>
+      <c r="W35" s="6"/>
     </row>
     <row r="36" spans="22:23">
-      <c r="V36" s="1"/>
-      <c r="W36" s="1"/>
+      <c r="V36" s="6"/>
+      <c r="W36" s="6"/>
     </row>
     <row r="37" spans="22:23">
-      <c r="V37" s="1"/>
-      <c r="W37" s="1"/>
+      <c r="V37" s="6"/>
+      <c r="W37" s="6"/>
     </row>
     <row r="38" spans="22:23">
-      <c r="V38" s="1"/>
-      <c r="W38" s="1"/>
+      <c r="V38" s="6"/>
+      <c r="W38" s="6"/>
     </row>
     <row r="39" spans="22:23">
-      <c r="V39" s="1"/>
-      <c r="W39" s="1"/>
+      <c r="V39" s="6"/>
+      <c r="W39" s="6"/>
     </row>
     <row r="40" spans="22:23">
-      <c r="V40" s="1"/>
-      <c r="W40" s="1"/>
+      <c r="V40" s="6"/>
+      <c r="W40" s="6"/>
     </row>
     <row r="41" spans="22:23">
-      <c r="V41" s="1"/>
-      <c r="W41" s="1"/>
+      <c r="V41" s="6"/>
+      <c r="W41" s="6"/>
     </row>
     <row r="42" spans="22:23">
-      <c r="V42" s="1"/>
-      <c r="W42" s="1"/>
+      <c r="V42" s="6"/>
+      <c r="W42" s="6"/>
     </row>
     <row r="43" spans="22:23">
-      <c r="V43" s="1"/>
-      <c r="W43" s="1"/>
+      <c r="V43" s="6"/>
+      <c r="W43" s="6"/>
     </row>
     <row r="44" spans="22:23">
-      <c r="V44" s="1"/>
-      <c r="W44" s="1"/>
+      <c r="V44" s="6"/>
+      <c r="W44" s="6"/>
     </row>
     <row r="45" spans="22:23">
-      <c r="V45" s="1"/>
-      <c r="W45" s="1"/>
+      <c r="V45" s="6"/>
+      <c r="W45" s="6"/>
     </row>
     <row r="46" spans="22:23">
-      <c r="V46" s="1"/>
-      <c r="W46" s="1"/>
+      <c r="V46" s="6"/>
+      <c r="W46" s="6"/>
     </row>
     <row r="47" spans="22:23">
-      <c r="V47" s="1"/>
-      <c r="W47" s="1"/>
+      <c r="V47" s="6"/>
+      <c r="W47" s="6"/>
     </row>
     <row r="48" spans="22:23">
-      <c r="V48" s="1"/>
-      <c r="W48" s="1"/>
+      <c r="V48" s="6"/>
+      <c r="W48" s="6"/>
     </row>
     <row r="49" spans="22:23">
-      <c r="V49" s="1"/>
-      <c r="W49" s="1"/>
+      <c r="V49" s="6"/>
+      <c r="W49" s="6"/>
     </row>
     <row r="50" spans="22:23">
-      <c r="V50" s="1"/>
-      <c r="W50" s="1"/>
+      <c r="V50" s="6"/>
+      <c r="W50" s="6"/>
     </row>
     <row r="51" spans="22:23">
-      <c r="V51" s="1"/>
-      <c r="W51" s="1"/>
+      <c r="V51" s="6"/>
+      <c r="W51" s="6"/>
     </row>
     <row r="52" spans="22:23">
-      <c r="V52" s="1"/>
-      <c r="W52" s="1"/>
+      <c r="V52" s="6"/>
+      <c r="W52" s="6"/>
     </row>
     <row r="53" spans="22:23">
-      <c r="V53" s="1"/>
-      <c r="W53" s="1"/>
+      <c r="V53" s="6"/>
+      <c r="W53" s="6"/>
     </row>
     <row r="54" spans="22:23">
-      <c r="V54" s="1"/>
-      <c r="W54" s="1"/>
+      <c r="V54" s="6"/>
+      <c r="W54" s="6"/>
     </row>
     <row r="55" spans="22:23">
-      <c r="V55" s="1"/>
-      <c r="W55" s="1"/>
+      <c r="V55" s="6"/>
+      <c r="W55" s="6"/>
     </row>
     <row r="56" spans="22:23">
-      <c r="V56" s="1"/>
-      <c r="W56" s="1"/>
+      <c r="V56" s="6"/>
+      <c r="W56" s="6"/>
     </row>
     <row r="57" spans="22:23">
-      <c r="V57" s="1"/>
-      <c r="W57" s="1"/>
+      <c r="V57" s="6"/>
+      <c r="W57" s="6"/>
     </row>
     <row r="58" spans="22:23">
-      <c r="V58" s="1"/>
-      <c r="W58" s="1"/>
+      <c r="V58" s="6"/>
+      <c r="W58" s="6"/>
     </row>
     <row r="59" spans="22:23">
-      <c r="V59" s="1"/>
-      <c r="W59" s="1"/>
+      <c r="V59" s="6"/>
+      <c r="W59" s="6"/>
     </row>
     <row r="60" spans="22:23">
-      <c r="V60" s="1"/>
-      <c r="W60" s="1"/>
+      <c r="V60" s="6"/>
+      <c r="W60" s="6"/>
     </row>
   </sheetData>
   <protectedRanges>
     <protectedRange algorithmName="SHA-512" hashValue="UzA0nOFUeaFtULQSIT4958zhoYyTmirahG2yNfR1IG/8l49DY8qF3CYXVXIUJIJtfHaTg0AH2Mgy69FLGfFI8g==" saltValue="s1fm+kLliY0bj7VgCAWACg==" spinCount="100000" sqref="A1:B1" name="区域1"/>
   </protectedRanges>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2:W60" xr:uid="{AE7D9BBC-EE55-2549-A233-61799DCDACCF}">
-      <formula1>"UPS,FEDEX,DHL,DPD,TNT"</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="录入提示" error="不能修改标题" sqref="B1" xr:uid="{950C7A98-8ED7-1046-96B0-D59875A5F2C0}">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="录入提示" error="不能修改标题" sqref="B1">
       <formula1>"快递类型"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2:V60" xr:uid="{BC2769D7-F526-D64A-9C2B-D404F031CFCF}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2:V60">
       <formula1>"卡车派送,UPS,FEDEX,DHL,DPD,TNT,客户自提,仓储上架,暂扣留仓(HOLD),整柜直送,大货中转,亚马逊自提,UPS LTL,LTL,PICKUP BY CNEE,STORED IN W.H.,PARCEL WITH LABEL,PARCEL WITHOUT LABEL,FTL,FCL"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2:W60">
+      <formula1>"UPS,FEDEX,DHL,DPD,TNT"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
-  <rangeList sheetStid="1" master="">
+  <rangeList sheetStid="2" master="" otherUserPermission="visible">
     <arrUserId title="区域1" rangeCreator="" othersAccessPermission="edit"/>
   </rangeList>
-  <rangeList sheetStid="2" master=""/>
 </allowEditUser>
 </file>
 

--- a/warehouse/templates/export_file/packing_list_template.xlsx
+++ b/warehouse/templates/export_file/packing_list_template.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10817"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuxiang.li/Downloads/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{767D7015-0414-B449-A198-6725EC635A85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="9555"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="50700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -113,19 +119,15 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="5">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="[$-1010804]General"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="[$-1010804]General"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -133,7 +135,8 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -141,6 +144,7 @@
       <b/>
       <sz val="12"/>
       <name val="Microsoft YaHei UI"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -148,157 +152,15 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Microsoft YaHei UI"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
+      <family val="4"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -310,10 +172,10 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -326,194 +188,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -538,261 +214,47 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="2" tint="-0.499984740745262"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="2" tint="-0.499984740745262"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color theme="2" tint="-0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="53">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="24" fillId="0" borderId="0">
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -810,72 +272,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="53">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
-    <cellStyle name="常规 2 2" xfId="50"/>
-    <cellStyle name="常规_11BOS01 PI YW-EPI11007" xfId="51"/>
-    <cellStyle name="普通 2" xfId="52"/>
+  <cellStyles count="5">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="常规 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="常规_11BOS01 PI YW-EPI11007" xfId="3" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="普通 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="00FFFF00"/>
-      <color rgb="00000000"/>
+      <color rgb="FFFFFF00"/>
+      <color rgb="FF000000"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1133,38 +557,39 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:AA60"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AA100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="AA5" sqref="AA5"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.85"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.5044247787611" customWidth="1"/>
-    <col min="2" max="2" width="11.3362831858407" customWidth="1"/>
-    <col min="4" max="6" width="8.33628318584071" customWidth="1"/>
+    <col min="1" max="1" width="15.5" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" customWidth="1"/>
+    <col min="4" max="6" width="8.33203125" customWidth="1"/>
     <col min="7" max="10" width="10" customWidth="1"/>
-    <col min="11" max="14" width="8.33628318584071" customWidth="1"/>
+    <col min="11" max="14" width="8.33203125" customWidth="1"/>
     <col min="15" max="15" width="11" customWidth="1"/>
-    <col min="16" max="16" width="11.1681415929204" customWidth="1"/>
-    <col min="17" max="18" width="13.3362831858407" customWidth="1"/>
+    <col min="16" max="16" width="11.1640625" customWidth="1"/>
+    <col min="17" max="18" width="13.33203125" customWidth="1"/>
     <col min="19" max="19" width="16" customWidth="1"/>
-    <col min="20" max="20" width="20.5044247787611" customWidth="1"/>
+    <col min="20" max="20" width="20.5" customWidth="1"/>
     <col min="21" max="21" width="26" customWidth="1"/>
-    <col min="22" max="22" width="11.1681415929204" customWidth="1"/>
-    <col min="23" max="23" width="10.6637168141593" customWidth="1"/>
-    <col min="24" max="24" width="10.3362831858407" customWidth="1"/>
-    <col min="25" max="25" width="18.8318584070796" customWidth="1"/>
+    <col min="22" max="22" width="11.1640625" customWidth="1"/>
+    <col min="23" max="23" width="10.6640625" customWidth="1"/>
+    <col min="24" max="24" width="10.33203125" customWidth="1"/>
+    <col min="25" max="25" width="18.83203125" customWidth="1"/>
+    <col min="26" max="27" width="13.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="29" customHeight="1" spans="1:27">
+    <row r="1" spans="1:27" s="1" customFormat="1" ht="29" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1237,17 +662,17 @@
       <c r="X1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Y1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" s="8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:23">
+    <row r="2" spans="1:27">
       <c r="A2" s="5"/>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
@@ -1259,7 +684,7 @@
       <c r="V2" s="6"/>
       <c r="W2" s="6"/>
     </row>
-    <row r="3" spans="1:23">
+    <row r="3" spans="1:27">
       <c r="A3" s="5"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
@@ -1272,55 +697,55 @@
       <c r="V3" s="6"/>
       <c r="W3" s="6"/>
     </row>
-    <row r="4" spans="22:23">
+    <row r="4" spans="1:27">
       <c r="V4" s="6"/>
       <c r="W4" s="6"/>
     </row>
-    <row r="5" spans="22:23">
+    <row r="5" spans="1:27">
       <c r="V5" s="6"/>
       <c r="W5" s="6"/>
     </row>
-    <row r="6" spans="22:23">
+    <row r="6" spans="1:27">
       <c r="V6" s="6"/>
       <c r="W6" s="6"/>
     </row>
-    <row r="7" spans="22:23">
+    <row r="7" spans="1:27">
       <c r="V7" s="6"/>
       <c r="W7" s="6"/>
     </row>
-    <row r="8" spans="22:23">
+    <row r="8" spans="1:27">
       <c r="V8" s="6"/>
       <c r="W8" s="6"/>
     </row>
-    <row r="9" spans="22:23">
+    <row r="9" spans="1:27">
       <c r="V9" s="6"/>
       <c r="W9" s="6"/>
     </row>
-    <row r="10" spans="22:23">
+    <row r="10" spans="1:27">
       <c r="V10" s="6"/>
       <c r="W10" s="6"/>
     </row>
-    <row r="11" spans="22:23">
+    <row r="11" spans="1:27">
       <c r="V11" s="6"/>
       <c r="W11" s="6"/>
     </row>
-    <row r="12" spans="22:23">
+    <row r="12" spans="1:27">
       <c r="V12" s="6"/>
       <c r="W12" s="6"/>
     </row>
-    <row r="13" spans="22:23">
+    <row r="13" spans="1:27">
       <c r="V13" s="6"/>
       <c r="W13" s="6"/>
     </row>
-    <row r="14" spans="22:23">
+    <row r="14" spans="1:27">
       <c r="V14" s="6"/>
       <c r="W14" s="6"/>
     </row>
-    <row r="15" spans="22:23">
+    <row r="15" spans="1:27">
       <c r="V15" s="6"/>
       <c r="W15" s="6"/>
     </row>
-    <row r="16" spans="22:23">
+    <row r="16" spans="1:27">
       <c r="V16" s="6"/>
       <c r="W16" s="6"/>
     </row>
@@ -1499,24 +924,186 @@
     <row r="60" spans="22:23">
       <c r="V60" s="6"/>
       <c r="W60" s="6"/>
+    </row>
+    <row r="61" spans="22:23">
+      <c r="V61" s="6"/>
+      <c r="W61" s="6"/>
+    </row>
+    <row r="62" spans="22:23">
+      <c r="V62" s="6"/>
+      <c r="W62" s="6"/>
+    </row>
+    <row r="63" spans="22:23">
+      <c r="V63" s="6"/>
+      <c r="W63" s="6"/>
+    </row>
+    <row r="64" spans="22:23">
+      <c r="V64" s="6"/>
+      <c r="W64" s="6"/>
+    </row>
+    <row r="65" spans="22:23">
+      <c r="V65" s="6"/>
+      <c r="W65" s="6"/>
+    </row>
+    <row r="66" spans="22:23">
+      <c r="V66" s="6"/>
+      <c r="W66" s="6"/>
+    </row>
+    <row r="67" spans="22:23">
+      <c r="V67" s="6"/>
+      <c r="W67" s="6"/>
+    </row>
+    <row r="68" spans="22:23">
+      <c r="V68" s="6"/>
+      <c r="W68" s="6"/>
+    </row>
+    <row r="69" spans="22:23">
+      <c r="V69" s="6"/>
+      <c r="W69" s="6"/>
+    </row>
+    <row r="70" spans="22:23">
+      <c r="V70" s="6"/>
+      <c r="W70" s="6"/>
+    </row>
+    <row r="71" spans="22:23">
+      <c r="V71" s="6"/>
+      <c r="W71" s="6"/>
+    </row>
+    <row r="72" spans="22:23">
+      <c r="V72" s="6"/>
+      <c r="W72" s="6"/>
+    </row>
+    <row r="73" spans="22:23">
+      <c r="V73" s="6"/>
+      <c r="W73" s="6"/>
+    </row>
+    <row r="74" spans="22:23">
+      <c r="V74" s="6"/>
+      <c r="W74" s="6"/>
+    </row>
+    <row r="75" spans="22:23">
+      <c r="V75" s="6"/>
+      <c r="W75" s="6"/>
+    </row>
+    <row r="76" spans="22:23">
+      <c r="V76" s="6"/>
+      <c r="W76" s="6"/>
+    </row>
+    <row r="77" spans="22:23">
+      <c r="V77" s="6"/>
+      <c r="W77" s="6"/>
+    </row>
+    <row r="78" spans="22:23">
+      <c r="V78" s="6"/>
+      <c r="W78" s="6"/>
+    </row>
+    <row r="79" spans="22:23">
+      <c r="V79" s="6"/>
+      <c r="W79" s="6"/>
+    </row>
+    <row r="80" spans="22:23">
+      <c r="V80" s="6"/>
+      <c r="W80" s="6"/>
+    </row>
+    <row r="81" spans="22:23">
+      <c r="V81" s="6"/>
+      <c r="W81" s="6"/>
+    </row>
+    <row r="82" spans="22:23">
+      <c r="V82" s="6"/>
+      <c r="W82" s="6"/>
+    </row>
+    <row r="83" spans="22:23">
+      <c r="V83" s="6"/>
+      <c r="W83" s="6"/>
+    </row>
+    <row r="84" spans="22:23">
+      <c r="V84" s="6"/>
+      <c r="W84" s="6"/>
+    </row>
+    <row r="85" spans="22:23">
+      <c r="V85" s="6"/>
+      <c r="W85" s="6"/>
+    </row>
+    <row r="86" spans="22:23">
+      <c r="V86" s="6"/>
+      <c r="W86" s="6"/>
+    </row>
+    <row r="87" spans="22:23">
+      <c r="V87" s="6"/>
+      <c r="W87" s="6"/>
+    </row>
+    <row r="88" spans="22:23">
+      <c r="V88" s="6"/>
+      <c r="W88" s="6"/>
+    </row>
+    <row r="89" spans="22:23">
+      <c r="V89" s="6"/>
+      <c r="W89" s="6"/>
+    </row>
+    <row r="90" spans="22:23">
+      <c r="V90" s="6"/>
+      <c r="W90" s="6"/>
+    </row>
+    <row r="91" spans="22:23">
+      <c r="V91" s="6"/>
+      <c r="W91" s="6"/>
+    </row>
+    <row r="92" spans="22:23">
+      <c r="V92" s="6"/>
+      <c r="W92" s="6"/>
+    </row>
+    <row r="93" spans="22:23">
+      <c r="V93" s="6"/>
+      <c r="W93" s="6"/>
+    </row>
+    <row r="94" spans="22:23">
+      <c r="V94" s="6"/>
+      <c r="W94" s="6"/>
+    </row>
+    <row r="95" spans="22:23">
+      <c r="V95" s="6"/>
+      <c r="W95" s="6"/>
+    </row>
+    <row r="96" spans="22:23">
+      <c r="V96" s="6"/>
+      <c r="W96" s="6"/>
+    </row>
+    <row r="97" spans="22:23">
+      <c r="V97" s="6"/>
+      <c r="W97" s="6"/>
+    </row>
+    <row r="98" spans="22:23">
+      <c r="V98" s="6"/>
+      <c r="W98" s="6"/>
+    </row>
+    <row r="99" spans="22:23">
+      <c r="V99" s="6"/>
+      <c r="W99" s="6"/>
+    </row>
+    <row r="100" spans="22:23">
+      <c r="V100" s="6"/>
+      <c r="W100" s="6"/>
     </row>
   </sheetData>
   <protectedRanges>
     <protectedRange algorithmName="SHA-512" hashValue="UzA0nOFUeaFtULQSIT4958zhoYyTmirahG2yNfR1IG/8l49DY8qF3CYXVXIUJIJtfHaTg0AH2Mgy69FLGfFI8g==" saltValue="s1fm+kLliY0bj7VgCAWACg==" spinCount="100000" sqref="A1:B1" name="区域1"/>
   </protectedRanges>
-  <dataValidations count="3">
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="录入提示" error="不能修改标题" sqref="B1">
+  <dataValidations count="4">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="录入提示" error="不能修改标题" sqref="B1" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"快递类型"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2:V60">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2:V100" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"卡车派送,UPS,FEDEX,DHL,DPD,TNT,客户自提,仓储上架,暂扣留仓(HOLD),整柜直送,大货中转,亚马逊自提,UPS LTL,LTL,PICKUP BY CNEE,STORED IN W.H.,PARCEL WITH LABEL,PARCEL WITHOUT LABEL,FTL,FCL"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2:W60">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2:W100" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"UPS,FEDEX,DHL,DPD,TNT"</formula1>
+    </dataValidation>
+    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="日期格式：YYYY-MM-DD" prompt="例 2025-08-21" sqref="Z2:AA100" xr:uid="{056A4BE9-5759-1044-B0D3-D07AFFE99BE1}">
+      <formula1>36526</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
